--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Angptl2-Itga5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Angptl2-Itga5.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.460132666666667</v>
+        <v>2.266960666666667</v>
       </c>
       <c r="H2">
-        <v>13.380398</v>
+        <v>6.800882000000001</v>
       </c>
       <c r="I2">
-        <v>0.02674725343762848</v>
+        <v>0.0133060725960104</v>
       </c>
       <c r="J2">
-        <v>0.02674725343762847</v>
+        <v>0.0133060725960104</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>31.22896466666667</v>
+        <v>45.90594266666667</v>
       </c>
       <c r="N2">
-        <v>93.686894</v>
+        <v>137.717828</v>
       </c>
       <c r="O2">
-        <v>0.2877106972998645</v>
+        <v>0.3954672001633582</v>
       </c>
       <c r="P2">
-        <v>0.2877106972998645</v>
+        <v>0.3954672001633583</v>
       </c>
       <c r="Q2">
-        <v>139.2853254559791</v>
+        <v>104.0669663915885</v>
       </c>
       <c r="R2">
-        <v>1253.567929103812</v>
+        <v>936.6026975242961</v>
       </c>
       <c r="S2">
-        <v>0.007695470937396289</v>
+        <v>0.005262115274714622</v>
       </c>
       <c r="T2">
-        <v>0.007695470937396287</v>
+        <v>0.005262115274714623</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.460132666666667</v>
+        <v>2.266960666666667</v>
       </c>
       <c r="H3">
-        <v>13.380398</v>
+        <v>6.800882000000001</v>
       </c>
       <c r="I3">
-        <v>0.02674725343762848</v>
+        <v>0.0133060725960104</v>
       </c>
       <c r="J3">
-        <v>0.02674725343762847</v>
+        <v>0.0133060725960104</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>121.337348</v>
       </c>
       <c r="O3">
-        <v>0.3726247238124505</v>
+        <v>0.3484294080560655</v>
       </c>
       <c r="P3">
-        <v>0.3726247238124506</v>
+        <v>0.3484294080560656</v>
       </c>
       <c r="Q3">
-        <v>180.3935565005005</v>
+        <v>91.68899843788178</v>
       </c>
       <c r="R3">
-        <v>1623.542008504504</v>
+        <v>825.200985940936</v>
       </c>
       <c r="S3">
-        <v>0.00996668792493793</v>
+        <v>0.004636226998178941</v>
       </c>
       <c r="T3">
-        <v>0.00996668792493793</v>
+        <v>0.004636226998178942</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.460132666666667</v>
+        <v>2.266960666666667</v>
       </c>
       <c r="H4">
-        <v>13.380398</v>
+        <v>6.800882000000001</v>
       </c>
       <c r="I4">
-        <v>0.02674725343762848</v>
+        <v>0.0133060725960104</v>
       </c>
       <c r="J4">
-        <v>0.02674725343762847</v>
+        <v>0.0133060725960104</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.49855033333333</v>
+        <v>12.761795</v>
       </c>
       <c r="N4">
-        <v>34.495651</v>
+        <v>38.28538500000001</v>
       </c>
       <c r="O4">
-        <v>0.1059354983315251</v>
+        <v>0.1099393900775594</v>
       </c>
       <c r="P4">
-        <v>0.1059354983315251</v>
+        <v>0.1099393900775594</v>
       </c>
       <c r="Q4">
-        <v>51.2850599610109</v>
+        <v>28.93048730106334</v>
       </c>
       <c r="R4">
-        <v>461.5655396490981</v>
+        <v>260.37438570957</v>
       </c>
       <c r="S4">
-        <v>0.002833483621914771</v>
+        <v>0.001462861505533111</v>
       </c>
       <c r="T4">
-        <v>0.00283348362191477</v>
+        <v>0.001462861505533112</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.460132666666667</v>
+        <v>2.266960666666667</v>
       </c>
       <c r="H5">
-        <v>13.380398</v>
+        <v>6.800882000000001</v>
       </c>
       <c r="I5">
-        <v>0.02674725343762848</v>
+        <v>0.0133060725960104</v>
       </c>
       <c r="J5">
-        <v>0.02674725343762847</v>
+        <v>0.0133060725960104</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>25.36964133333333</v>
+        <v>16.966758</v>
       </c>
       <c r="N5">
-        <v>76.108924</v>
+        <v>50.900274</v>
       </c>
       <c r="O5">
-        <v>0.2337290805561597</v>
+        <v>0.1461640017030168</v>
       </c>
       <c r="P5">
-        <v>0.2337290805561597</v>
+        <v>0.1461640017030168</v>
       </c>
       <c r="Q5">
-        <v>113.1519660524169</v>
+        <v>38.462973026852</v>
       </c>
       <c r="R5">
-        <v>1018.367694471752</v>
+        <v>346.166757241668</v>
       </c>
       <c r="S5">
-        <v>0.006251610953379487</v>
+        <v>0.00194486881758373</v>
       </c>
       <c r="T5">
-        <v>0.006251610953379486</v>
+        <v>0.00194486881758373</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>386.813492</v>
       </c>
       <c r="I6">
-        <v>0.7732354825034408</v>
+        <v>0.7568089559072322</v>
       </c>
       <c r="J6">
-        <v>0.7732354825034408</v>
+        <v>0.7568089559072322</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>31.22896466666667</v>
+        <v>45.90594266666667</v>
       </c>
       <c r="N6">
-        <v>93.686894</v>
+        <v>137.717828</v>
       </c>
       <c r="O6">
-        <v>0.2877106972998645</v>
+        <v>0.3954672001633582</v>
       </c>
       <c r="P6">
-        <v>0.2877106972998645</v>
+        <v>0.3954672001633583</v>
       </c>
       <c r="Q6">
-        <v>4026.594958085983</v>
+        <v>5919.012662148375</v>
       </c>
       <c r="R6">
-        <v>36239.35462277385</v>
+        <v>53271.11395933537</v>
       </c>
       <c r="S6">
-        <v>0.2224681198480621</v>
+        <v>0.2992931188511875</v>
       </c>
       <c r="T6">
-        <v>0.2224681198480621</v>
+        <v>0.2992931188511876</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>386.813492</v>
       </c>
       <c r="I7">
-        <v>0.7732354825034408</v>
+        <v>0.7568089559072322</v>
       </c>
       <c r="J7">
-        <v>0.7732354825034408</v>
+        <v>0.7568089559072322</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>121.337348</v>
       </c>
       <c r="O7">
-        <v>0.3726247238124505</v>
+        <v>0.3484294080560655</v>
       </c>
       <c r="P7">
-        <v>0.3726247238124506</v>
+        <v>0.3484294080560656</v>
       </c>
       <c r="Q7">
         <v>5214.991476655468</v>
       </c>
       <c r="R7">
-        <v>46934.92328989923</v>
+        <v>46934.92328989921</v>
       </c>
       <c r="S7">
-        <v>0.2881266581098316</v>
+        <v>0.2636944965182859</v>
       </c>
       <c r="T7">
-        <v>0.2881266581098316</v>
+        <v>0.263694496518286</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>386.813492</v>
       </c>
       <c r="I8">
-        <v>0.7732354825034408</v>
+        <v>0.7568089559072322</v>
       </c>
       <c r="J8">
-        <v>0.7732354825034408</v>
+        <v>0.7568089559072322</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>11.49855033333333</v>
+        <v>12.761795</v>
       </c>
       <c r="N8">
-        <v>34.495651</v>
+        <v>38.28538500000001</v>
       </c>
       <c r="O8">
-        <v>0.1059354983315251</v>
+        <v>0.1099393900775594</v>
       </c>
       <c r="P8">
-        <v>0.1059354983315251</v>
+        <v>0.1099393900775594</v>
       </c>
       <c r="Q8">
-        <v>1482.598135791477</v>
+        <v>1645.478162712713</v>
       </c>
       <c r="R8">
-        <v>13343.38322212329</v>
+        <v>14809.30346441442</v>
       </c>
       <c r="S8">
-        <v>0.08191308616661927</v>
+        <v>0.08320311501767565</v>
       </c>
       <c r="T8">
-        <v>0.08191308616661927</v>
+        <v>0.08320311501767567</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>386.813492</v>
       </c>
       <c r="I9">
-        <v>0.7732354825034408</v>
+        <v>0.7568089559072322</v>
       </c>
       <c r="J9">
-        <v>0.7732354825034408</v>
+        <v>0.7568089559072322</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>25.36964133333333</v>
+        <v>16.966758</v>
       </c>
       <c r="N9">
-        <v>76.108924</v>
+        <v>50.900274</v>
       </c>
       <c r="O9">
-        <v>0.2337290805561597</v>
+        <v>0.1461640017030168</v>
       </c>
       <c r="P9">
-        <v>0.2337290805561597</v>
+        <v>0.1461640017030168</v>
       </c>
       <c r="Q9">
-        <v>3271.106518311401</v>
+        <v>2187.656969966312</v>
       </c>
       <c r="R9">
-        <v>29439.95866480261</v>
+        <v>19688.91272969681</v>
       </c>
       <c r="S9">
-        <v>0.1807276183789277</v>
+        <v>0.110618225520083</v>
       </c>
       <c r="T9">
-        <v>0.1807276183789278</v>
+        <v>0.1106182255200831</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>30.29400666666666</v>
+        <v>37.26833833333333</v>
       </c>
       <c r="H10">
-        <v>90.88202</v>
+        <v>111.805015</v>
       </c>
       <c r="I10">
-        <v>0.1816720565310254</v>
+        <v>0.2187489278872993</v>
       </c>
       <c r="J10">
-        <v>0.1816720565310254</v>
+        <v>0.2187489278872993</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>31.22896466666667</v>
+        <v>45.90594266666667</v>
       </c>
       <c r="N10">
-        <v>93.686894</v>
+        <v>137.717828</v>
       </c>
       <c r="O10">
-        <v>0.2877106972998645</v>
+        <v>0.3954672001633582</v>
       </c>
       <c r="P10">
-        <v>0.2877106972998645</v>
+        <v>0.3954672001633583</v>
       </c>
       <c r="Q10">
-        <v>946.0504638050977</v>
+        <v>1710.838202811936</v>
       </c>
       <c r="R10">
-        <v>8514.454174245879</v>
+        <v>15397.54382530742</v>
       </c>
       <c r="S10">
-        <v>0.05226899406444174</v>
+        <v>0.08650802605032661</v>
       </c>
       <c r="T10">
-        <v>0.05226899406444173</v>
+        <v>0.08650802605032663</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>30.29400666666666</v>
+        <v>37.26833833333333</v>
       </c>
       <c r="H11">
-        <v>90.88202</v>
+        <v>111.805015</v>
       </c>
       <c r="I11">
-        <v>0.1816720565310254</v>
+        <v>0.2187489278872993</v>
       </c>
       <c r="J11">
-        <v>0.1816720565310254</v>
+        <v>0.2187489278872993</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>121.337348</v>
       </c>
       <c r="O11">
-        <v>0.3726247238124505</v>
+        <v>0.3484294080560655</v>
       </c>
       <c r="P11">
-        <v>0.3726247238124506</v>
+        <v>0.3484294080560656</v>
       </c>
       <c r="Q11">
-        <v>1225.264809742551</v>
+        <v>1507.347112577802</v>
       </c>
       <c r="R11">
-        <v>11027.38328768296</v>
+        <v>13566.12401320022</v>
       </c>
       <c r="S11">
-        <v>0.06769549988931325</v>
+        <v>0.07621855945667066</v>
       </c>
       <c r="T11">
-        <v>0.06769549988931325</v>
+        <v>0.07621855945667068</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>30.29400666666666</v>
+        <v>37.26833833333333</v>
       </c>
       <c r="H12">
-        <v>90.88202</v>
+        <v>111.805015</v>
       </c>
       <c r="I12">
-        <v>0.1816720565310254</v>
+        <v>0.2187489278872993</v>
       </c>
       <c r="J12">
-        <v>0.1816720565310254</v>
+        <v>0.2187489278872993</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>11.49855033333333</v>
+        <v>12.761795</v>
       </c>
       <c r="N12">
-        <v>34.495651</v>
+        <v>38.28538500000001</v>
       </c>
       <c r="O12">
-        <v>0.1059354983315251</v>
+        <v>0.1099393900775594</v>
       </c>
       <c r="P12">
-        <v>0.1059354983315251</v>
+        <v>0.1099393900775594</v>
       </c>
       <c r="Q12">
-        <v>348.3371604550022</v>
+        <v>475.6108938006417</v>
       </c>
       <c r="R12">
-        <v>3135.03444409502</v>
+        <v>4280.498044205776</v>
       </c>
       <c r="S12">
-        <v>0.01924551984152718</v>
+        <v>0.02404912371204971</v>
       </c>
       <c r="T12">
-        <v>0.01924551984152718</v>
+        <v>0.02404912371204972</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>30.29400666666666</v>
+        <v>37.26833833333333</v>
       </c>
       <c r="H13">
-        <v>90.88202</v>
+        <v>111.805015</v>
       </c>
       <c r="I13">
-        <v>0.1816720565310254</v>
+        <v>0.2187489278872993</v>
       </c>
       <c r="J13">
-        <v>0.1816720565310254</v>
+        <v>0.2187489278872993</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>25.36964133333333</v>
+        <v>16.966758</v>
       </c>
       <c r="N13">
-        <v>76.108924</v>
+        <v>50.900274</v>
       </c>
       <c r="O13">
-        <v>0.2337290805561597</v>
+        <v>0.1461640017030168</v>
       </c>
       <c r="P13">
-        <v>0.2337290805561597</v>
+        <v>0.1461640017030168</v>
       </c>
       <c r="Q13">
-        <v>768.5480836829422</v>
+        <v>632.3228775637899</v>
       </c>
       <c r="R13">
-        <v>6916.93275314648</v>
+        <v>5690.905898074109</v>
       </c>
       <c r="S13">
-        <v>0.04246204273574325</v>
+        <v>0.03197321866825232</v>
       </c>
       <c r="T13">
-        <v>0.04246204273574324</v>
+        <v>0.03197321866825233</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.059082666666667</v>
+        <v>1.897252</v>
       </c>
       <c r="H14">
-        <v>9.177248000000002</v>
+        <v>5.691756</v>
       </c>
       <c r="I14">
-        <v>0.01834520752790531</v>
+        <v>0.01113604360945798</v>
       </c>
       <c r="J14">
-        <v>0.01834520752790531</v>
+        <v>0.01113604360945798</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>31.22896466666667</v>
+        <v>45.90594266666667</v>
       </c>
       <c r="N14">
-        <v>93.686894</v>
+        <v>137.717828</v>
       </c>
       <c r="O14">
-        <v>0.2877106972998645</v>
+        <v>0.3954672001633582</v>
       </c>
       <c r="P14">
-        <v>0.2877106972998645</v>
+        <v>0.3954672001633583</v>
       </c>
       <c r="Q14">
-        <v>95.5319845097458</v>
+        <v>87.09514153621866</v>
       </c>
       <c r="R14">
-        <v>859.7878605877122</v>
+        <v>783.8562738259679</v>
       </c>
       <c r="S14">
-        <v>0.00527811244996436</v>
+        <v>0.004403939987129403</v>
       </c>
       <c r="T14">
-        <v>0.00527811244996436</v>
+        <v>0.004403939987129405</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.059082666666667</v>
+        <v>1.897252</v>
       </c>
       <c r="H15">
-        <v>9.177248000000002</v>
+        <v>5.691756</v>
       </c>
       <c r="I15">
-        <v>0.01834520752790531</v>
+        <v>0.01113604360945798</v>
       </c>
       <c r="J15">
-        <v>0.01834520752790531</v>
+        <v>0.01113604360945798</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>121.337348</v>
       </c>
       <c r="O15">
-        <v>0.3726247238124505</v>
+        <v>0.3484294080560655</v>
       </c>
       <c r="P15">
-        <v>0.3726247238124506</v>
+        <v>0.3484294080560656</v>
       </c>
       <c r="Q15">
-        <v>123.7269926953672</v>
+        <v>76.73584205589866</v>
       </c>
       <c r="R15">
-        <v>1113.542934258305</v>
+        <v>690.6225785030879</v>
       </c>
       <c r="S15">
-        <v>0.006835877888367803</v>
+        <v>0.003880125082929974</v>
       </c>
       <c r="T15">
-        <v>0.006835877888367804</v>
+        <v>0.003880125082929975</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.059082666666667</v>
+        <v>1.897252</v>
       </c>
       <c r="H16">
-        <v>9.177248000000002</v>
+        <v>5.691756</v>
       </c>
       <c r="I16">
-        <v>0.01834520752790531</v>
+        <v>0.01113604360945798</v>
       </c>
       <c r="J16">
-        <v>0.01834520752790531</v>
+        <v>0.01113604360945798</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>11.49855033333333</v>
+        <v>12.761795</v>
       </c>
       <c r="N16">
-        <v>34.495651</v>
+        <v>38.28538500000001</v>
       </c>
       <c r="O16">
-        <v>0.1059354983315251</v>
+        <v>0.1099393900775594</v>
       </c>
       <c r="P16">
-        <v>0.1059354983315251</v>
+        <v>0.1099393900775594</v>
       </c>
       <c r="Q16">
-        <v>35.17501601649423</v>
+        <v>24.21234108734</v>
       </c>
       <c r="R16">
-        <v>316.5751441484481</v>
+        <v>217.91106978606</v>
       </c>
       <c r="S16">
-        <v>0.001943408701463894</v>
+        <v>0.001224289842300913</v>
       </c>
       <c r="T16">
-        <v>0.001943408701463894</v>
+        <v>0.001224289842300913</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.059082666666667</v>
+        <v>1.897252</v>
       </c>
       <c r="H17">
-        <v>9.177248000000002</v>
+        <v>5.691756</v>
       </c>
       <c r="I17">
-        <v>0.01834520752790531</v>
+        <v>0.01113604360945798</v>
       </c>
       <c r="J17">
-        <v>0.01834520752790531</v>
+        <v>0.01113604360945798</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>25.36964133333333</v>
+        <v>16.966758</v>
       </c>
       <c r="N17">
-        <v>76.108924</v>
+        <v>50.900274</v>
       </c>
       <c r="O17">
-        <v>0.2337290805561597</v>
+        <v>0.1461640017030168</v>
       </c>
       <c r="P17">
-        <v>0.2337290805561597</v>
+        <v>0.1461640017030168</v>
       </c>
       <c r="Q17">
-        <v>77.60783006235025</v>
+        <v>32.190215549016</v>
       </c>
       <c r="R17">
-        <v>698.4704705611522</v>
+        <v>289.711939941144</v>
       </c>
       <c r="S17">
-        <v>0.004287808488109246</v>
+        <v>0.001627688697097685</v>
       </c>
       <c r="T17">
-        <v>0.004287808488109247</v>
+        <v>0.001627688697097686</v>
       </c>
     </row>
   </sheetData>
